--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/DBE72C8C-313A-4B9B-8D64-AAFAC4467FB6/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.reseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/C45F5AC5-E535-40E7-BDE8-E8F0CE1062DC/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.reseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF5203C-F301-BD40-B497-C0F83391FC2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF4204-7FA8-5F41-801D-D1D9FA0E1309}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1540" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="5920" yWindow="9060" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>sid</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>local_interleaved</t>
+  </si>
+  <si>
+    <t>hmp3</t>
+  </si>
+  <si>
+    <t>hmp2</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>mapper</t>
+  </si>
+  <si>
+    <t>bwa</t>
+  </si>
+  <si>
+    <t>B73</t>
   </si>
 </sst>
 </file>
@@ -438,11 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K4"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,7 +477,7 @@
     <col min="10" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,10 +511,16 @@
       <c r="K1" t="s">
         <v>4</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -510,10 +534,16 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -527,8 +557,14 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -543,6 +579,12 @@
       </c>
       <c r="F4" t="s">
         <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/C45F5AC5-E535-40E7-BDE8-E8F0CE1062DC/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.reseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/E16EDA40-116C-4A66-9347-DCC6AC405B04/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.reseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF4204-7FA8-5F41-801D-D1D9FA0E1309}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B163781-4F32-844B-8E63-F894B32C6F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="9060" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="21040" yWindow="12280" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>sid</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>B73</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>methylation mutant</t>
+  </si>
+  <si>
+    <t>pcrisp</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
 </sst>
 </file>
@@ -456,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="A1:M4"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,6 +599,32 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/E16EDA40-116C-4A66-9347-DCC6AC405B04/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.reseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/46565C70-ECF7-4C6F-9E03-E15DC248FFAE/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/reseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B163781-4F32-844B-8E63-F894B32C6F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB7459-9C95-704F-8821-3F8C9D322901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21040" yWindow="12280" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="8780" yWindow="13440" windowWidth="12060" windowHeight="10620" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
-  <si>
-    <t>sid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>study</t>
   </si>
@@ -36,79 +33,97 @@
     <t>author</t>
   </si>
   <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>tissue</t>
-  </si>
-  <si>
     <t>readtype</t>
   </si>
   <si>
     <t>illumina</t>
   </si>
   <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>hapmap2</t>
+  </si>
+  <si>
+    <t>hapmap3</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>local_interleaved</t>
+  </si>
+  <si>
+    <t>hmp3</t>
+  </si>
+  <si>
+    <t>hmp2</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>mapper</t>
+  </si>
+  <si>
+    <t>bwa</t>
+  </si>
+  <si>
+    <t>B73</t>
+  </si>
+  <si>
+    <t>methylation mutant</t>
+  </si>
+  <si>
+    <t>pcrisp</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>biomap</t>
+  </si>
+  <si>
+    <t>yid</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>stranded</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>assigned</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>hapmap2</t>
-  </si>
-  <si>
-    <t>hapmap3</t>
-  </si>
-  <si>
-    <t>widiv</t>
-  </si>
-  <si>
-    <t>sra</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>local_interleaved</t>
-  </si>
-  <si>
-    <t>hmp3</t>
-  </si>
-  <si>
-    <t>hmp2</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>mapper</t>
-  </si>
-  <si>
-    <t>bwa</t>
-  </si>
-  <si>
-    <t>B73</t>
-  </si>
-  <si>
-    <t>hc</t>
-  </si>
-  <si>
-    <t>methylation mutant</t>
-  </si>
-  <si>
-    <t>pcrisp</t>
-  </si>
-  <si>
-    <t>local</t>
+    <t>j01</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>m282</t>
+  </si>
+  <si>
+    <t>282 set</t>
+  </si>
+  <si>
+    <t>cs845</t>
+  </si>
+  <si>
+    <t>Csativa</t>
   </si>
 </sst>
 </file>
@@ -468,164 +483,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="A1:M5"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>598</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>277</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>845</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/46565C70-ECF7-4C6F-9E03-E15DC248FFAE/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/reseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8A4E98A1-FF17-4DD5-B613-B42909132760/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/reseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB7459-9C95-704F-8821-3F8C9D322901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC88D57C-AD66-EF46-BF0B-5123D18FD424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="13440" windowWidth="12060" windowHeight="10620" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="2580" yWindow="14980" windowWidth="12060" windowHeight="10620" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>study</t>
   </si>
@@ -63,9 +63,6 @@
     <t>hmp2</t>
   </si>
   <si>
-    <t>reference</t>
-  </si>
-  <si>
     <t>mapper</t>
   </si>
   <si>
@@ -124,6 +121,18 @@
   </si>
   <si>
     <t>Csativa</t>
+  </si>
+  <si>
+    <t>j02</t>
+  </si>
+  <si>
+    <t>gem31</t>
+  </si>
+  <si>
+    <t>german 31</t>
+  </si>
+  <si>
+    <t>ref</t>
   </si>
 </sst>
 </file>
@@ -483,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +516,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -519,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -528,19 +537,19 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -554,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -563,13 +572,13 @@
         <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -583,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -592,158 +601,216 @@
         <v>598</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
       <c r="H7">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
       <c r="H8">
+        <v>123</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>761</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>845</v>
       </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
